--- a/RiskEval test/Test/New/20160709/RiskEval_Test_Script.xlsx
+++ b/RiskEval test/Test/New/20160709/RiskEval_Test_Script.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iSabaya\RiskEval\RiskEval test\Test\New-20160709\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iSabaya\RiskEval\RiskEval test\Test\New\20160709\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ภาพรวม" sheetId="1" r:id="rId1"/>
@@ -59,231 +59,85 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft th</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Test condition Type:
+Normal: Test is done under the condition of  sceanario that normally occur
+Negative: Test is done under the condition of scenario that might impact system in the negative way
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft th</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Test condition Type:
+Normal: Test is done under the condition of  sceanario that normally occur
+Negative: Test is done under the condition of scenario that might impact system in the negative way
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="149">
-  <si>
-    <t>การลงทะเบียน ผู้ใช้งานระบบ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="161">
   <si>
     <t>ความต้องการ</t>
   </si>
   <si>
-    <t>ข้อมูลการลงทะเบียน</t>
-  </si>
-  <si>
-    <t>ตรวจสอบตามเอกสาร และในฐานข้อมูล ตาม query</t>
-  </si>
-  <si>
     <t>Query</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">สามารถบันทึกข้อมูลการลงทะเบียน </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>แต่ยังไม่สามารถเข้าสู่ระบบได้ทันที</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ต้องให้</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ผู้ดูแลระบบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> เปิดใช้งาน จังสามารถเข้าใช้งานได้</t>
-    </r>
-  </si>
-  <si>
-    <t>select * from user</t>
-  </si>
-  <si>
     <t>ทดสอบการลงทะเบียน (ส่วนราชการ รัฐวิสาหกิจ หน่วยงานอื่นของรัฐ จังหวัด และกลุ่มจังหวัด)</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://localhost:2854/Register</t>
-  </si>
-  <si>
-    <t>http://localhost:50338/Register</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">สามารถบันทึกข้อมูลการลงทะเบียน </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>แต่ยังไม่สามารถเข้าสู่ระบบได้ทันที</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ต้องให้</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ผู้ดูแลระบบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> เปิดใช้งาน จังสามารถเข้าใช้งานได้ </t>
-    </r>
-  </si>
-  <si>
     <t>โดยผู้ลงทะเบียนสามารถระบุสังกัดกระทรวงและสังกัดหน่วยงานได้เพียงกระทรงเดียว</t>
   </si>
   <si>
-    <t>โดยผู้ลงทะเบียนระบุ กระทรวงที่ดูและได้มากกว่า 1 กระทรวง</t>
-  </si>
-  <si>
     <t>การจัดการผู้ใช้งาน</t>
   </si>
   <si>
-    <r>
-      <t>ทดสอบการ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ปิดใช้งาน</t>
-    </r>
-  </si>
-  <si>
-    <t>http://localhost:53643/User</t>
-  </si>
-  <si>
-    <t>ระงับการใช้ของผู้ใช้งานชั่วคราว มัผลทำให้ผู้ใช้งานคนดังกล่าวไม่สามารถเข้าใช้งานระบบได้</t>
-  </si>
-  <si>
-    <r>
-      <t>ทดสอบการ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>เปิดใช้งาน</t>
-    </r>
-  </si>
-  <si>
-    <t>ทดสอบการลงทะเบียน (สำนักงบประมาณ)</t>
-  </si>
-  <si>
-    <t>ผู้ช้งานปรกติ ที่สามารถเข้าใช้งานระบบได้</t>
-  </si>
-  <si>
-    <r>
-      <t>ทดสอบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ลบผู้ใช้งาน</t>
-    </r>
-  </si>
-  <si>
     <t>ผู้งานที่ถูกลบไปจะไม่สามารถเข้าใช้งานได้ แต่ต้องไม่ลบข้อมูลออกจากฐานข้อมูล</t>
   </si>
   <si>
-    <r>
-      <t>ทดสอบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ปลดล็อคผู้ใช้งาน</t>
-    </r>
-  </si>
-  <si>
     <t>ผู้ใช้งานที่ไม่ได้ log out ออกจากระบบ คือผู้ใช้งานที่โดนล็อค ซึ่งจะทำให้ไม่สามารถเข้าใช้งานระบได้ชั่วคราว</t>
   </si>
   <si>
-    <r>
-      <t>ทดสอบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ล็อคผู้ใช้งาน</t>
-    </r>
-  </si>
-  <si>
     <t>ผู้ใช้งานที่ไม่ได้ log out ออกจากระบบ จะต้องโดนล็อค และไม่สามารถใช้งานระบบได้ชั่วคราว</t>
   </si>
   <si>
@@ -311,61 +165,19 @@
     <t>แสดงรายละเอยดผู้ใช้งานทีละราย รายเอียดตามเอกสาร</t>
   </si>
   <si>
-    <r>
-      <t>ทดสอบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>แสดงรายละเอียดข้อมูลผู้ใช้งาน</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ทดสอบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>แสดงรายงานผู้ใช้งาน</t>
-    </r>
-  </si>
-  <si>
     <t>แสดงรายงานตามผู้ใช้งานที่อยู่ในฐานข้อมูลในขณะนั้น รายละเอียดตามเอกสาร</t>
   </si>
   <si>
     <t>การจัดการประกาศสำนักประมาณ</t>
   </si>
   <si>
-    <t>ทดสอบเพิ่มประกาศ</t>
-  </si>
-  <si>
-    <t>http://localhost:53643/Announce</t>
-  </si>
-  <si>
     <t>select * from Announce</t>
   </si>
   <si>
-    <t>ทดสอบแก้ไขประกาศ</t>
-  </si>
-  <si>
     <t>เมื่อแก้ไขประกาศแล้วจะมีผลใช้งานทันที</t>
   </si>
   <si>
     <t>เมื่อเพิ่มประกาศแล้วจะมีผลใช้งานทันที</t>
-  </si>
-  <si>
-    <t>ทดสอบลบประกาศ</t>
   </si>
   <si>
     <t>เมื่อลบไขประกาศแล้วจะมีผลใช้งานทันที และจะลบออกจากฐานข้อมูลด้วย</t>
@@ -671,24 +483,141 @@
     <t>01</t>
   </si>
   <si>
-    <t>Search Customer</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>เข้าหน้าจอ Search Customer เพื่อค้นหาลูกค้า</t>
-  </si>
-  <si>
-    <t>1. Login
-2. หน้าจอ Search Customer เพื่อค้นหาลูกค้า
-3. ค้นหาลูกค้า</t>
-  </si>
-  <si>
-    <t>สามารถค้นหาลูกค้า เพื่อทำการ Register AnyID</t>
-  </si>
-  <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Firefox =&gt; 36</t>
+  </si>
+  <si>
+    <t>Internet Explorer =&gt; 9</t>
+  </si>
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t>เจ้าหน้าที่ดูแลระบบ</t>
+  </si>
+  <si>
+    <t>http://localhost:53643/</t>
+  </si>
+  <si>
+    <t>(BBAdminWeb)</t>
+  </si>
+  <si>
+    <t>เจ้าหน้าที่สำนักงาบฯ</t>
+  </si>
+  <si>
+    <t>http://localhost:50338/</t>
+  </si>
+  <si>
+    <t>(BBAnalysisWeb)</t>
+  </si>
+  <si>
+    <t>ส่วนราชการ</t>
+  </si>
+  <si>
+    <t>http://localhost:2854/</t>
+  </si>
+  <si>
+    <t>(BBClientWeb)</t>
+  </si>
+  <si>
+    <t>สามารถบันทึกข้อมูลการลงทะเบียน แต่ยังไม่สามารถเข้าสู่ระบบได้ทันที ต้องให้ผู้ดูแลระบบ เปิดใช้งาน จังสามารถเข้าใช้งานได้</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>ลงทะเบียน (สำนักงบประมาณ)</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>ไม่แสดงผลไดๆหลังจากกดปุ่มลงทะเบียน</t>
+  </si>
+  <si>
+    <t>TC-02</t>
+  </si>
+  <si>
+    <t>ระงับการใช้ของผู้ใช้งานชั่วคราวมีผลทำให้ผู้ใช้งานคนดังกล่าวไม่สามารถเข้าใช้งานระบบได้</t>
+  </si>
+  <si>
+    <t>ผู้ใช้งานคนไม่สามารถเข้าใช้งานระบบได้</t>
+  </si>
+  <si>
+    <t>เปิดใช้งาน</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>ปิดใช้งาน</t>
+  </si>
+  <si>
+    <t>ลบผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>ปลดล็อคผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>ล็อคผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>แสดงรายละเอียดข้อมูลผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>แสดงรายงานผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>เพิ่มประกาศ</t>
+  </si>
+  <si>
+    <t>แก้ไขประกาศ</t>
+  </si>
+  <si>
+    <t>ลบประกาศ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. เข้าหน้าจอ Login
+2. เข้าหน้าจอ หน้าหลัก
+3. เข้าหน้าจอ ประกาศสำนักประเมินผล
+4. เพิ่มข้อมูลแล้วกดบันทึก
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. เข้าหน้าจอ Login
+ 2. เข้าหน้าจอ หน้าหลัก
+3. เข้าหน้าจอ ประกาศ
+4. แก้ไขข้อมูลแล้วกดบันทึก
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. เข้าหน้าจอ Login
+ 2. เข้าหน้าจอ หน้าหลัก
+3. เข้าหน้าจอ ประกาศสำนักประเมินผล
+</t>
   </si>
 </sst>
 </file>
@@ -824,20 +753,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -861,11 +783,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -878,6 +817,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -895,8 +843,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -922,57 +873,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>554405</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>56143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1926167" y="3238500"/>
-          <a:ext cx="9761905" cy="8057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>16762</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>84619</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>84614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,50 +910,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>141638</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>113571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1257300" y="4572000"/>
-          <a:ext cx="9895238" cy="5828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1088,7 +953,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1131,7 +996,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1174,7 +1039,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1551,123 +1416,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="G7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" s="18" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="30" t="s">
-        <v>148</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1689,82 +1502,82 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1791,694 +1604,694 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C81" s="4"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C87" s="4"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C96" s="4"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C105" s="4"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C106" s="4"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C107" s="4"/>
     </row>
@@ -2489,120 +2302,171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="4" customWidth="1"/>
+    <col min="2" max="14" width="8.88671875" style="4"/>
+    <col min="15" max="15" width="16.88671875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="G4" s="25"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" s="23" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2610,523 +2474,538 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="16" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" s="16" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3134,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3145,154 +3024,154 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3317,154 +3196,154 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3488,103 +3367,103 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3609,103 +3488,103 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3730,190 +3609,190 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/RiskEval test/Test/New/20160709/RiskEval_Test_Script.xlsx
+++ b/RiskEval test/Test/New/20160709/RiskEval_Test_Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="4530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="4530" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ภาพรวม" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,32 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft th</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Test condition Type:
+Normal: Test is done under the condition of  sceanario that normally occur
+Negative: Test is done under the condition of scenario that might impact system in the negative way
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft th</author>
@@ -227,22 +253,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Test condition Type:
-Normal: Test is done under the condition of  sceanario that normally occur
-Negative: Test is done under the condition of scenario that might impact system in the negative way
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -300,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="184">
   <si>
     <t>ความต้องการ</t>
   </si>
@@ -852,9 +862,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>ยังไม่ทดสอบ</t>
-  </si>
-  <si>
     <t>1. เข้าหน้าจอ หลักธรรมาภิบาล  
 2. เพิ่มหลักธรรมาภิบาล</t>
   </si>
@@ -887,6 +894,12 @@
     <t>1. เข้าหน้าจอ Login
 2. เข้าหน้าจอ Register เพื่อลงทะเบียนผู้ใช้งาน
 3. ลงทะเบียนผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
+    <t>ทดสอบการแก้ไขแบบประเมิณความเสี่ยง</t>
   </si>
 </sst>
 </file>
@@ -1119,49 +1132,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1190,6 +1160,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1217,57 +1230,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>16762</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>84614</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1195917" y="9906000"/>
-          <a:ext cx="9838095" cy="8847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>227355</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>27644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1299,13 +1269,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>151162</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>27762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1636,7 +1606,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1678,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,37 +1688,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="30" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1757,8 +1727,8 @@
         <v>159</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1778,29 +1748,29 @@
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31" t="s">
+      <c r="I3" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="56" t="s">
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="42" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1830,11 +1800,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1842,6 +1807,11 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1856,8 +1826,8 @@
   </sheetPr>
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,37 +1836,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="30" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1905,8 +1875,8 @@
         <v>162</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1926,26 +1896,26 @@
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
       <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,26 +1925,26 @@
       <c r="B4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31" t="s">
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
       <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -1984,26 +1954,26 @@
       <c r="B5" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2013,26 +1983,26 @@
       <c r="B6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="57" t="s">
         <v>165</v>
       </c>
       <c r="L6" s="57"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
       <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2042,26 +2012,26 @@
       <c r="B7" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2072,26 +2042,26 @@
       <c r="B8" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="55" t="s">
+      <c r="P8" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2102,26 +2072,26 @@
       <c r="B9" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
       <c r="O9" s="19"/>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2132,26 +2102,26 @@
       <c r="B10" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
       <c r="O10" s="19"/>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2162,26 +2132,26 @@
       <c r="B11" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2192,26 +2162,26 @@
       <c r="B12" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="55" t="s">
+      <c r="P12" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2222,26 +2192,26 @@
       <c r="B13" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="55" t="s">
+      <c r="P13" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2252,26 +2222,26 @@
       <c r="B14" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2282,45 +2252,45 @@
       <c r="B15" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="51"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2328,7 +2298,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2336,7 +2306,7 @@
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2388,7 +2358,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="31" t="s">
         <v>68</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -2451,7 +2421,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="31" t="s">
         <v>71</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -2514,7 +2484,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="31" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2589,1290 +2559,1071 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53" t="s">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53" t="s">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="53" t="s">
+      <c r="B81" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53" t="s">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="B88" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
-      <c r="B89" s="53" t="s">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="53" t="s">
+      <c r="A90" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="53"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="53"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="53"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="53" t="s">
+      <c r="B94" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="52" t="s">
+      <c r="A98" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C100" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="53" t="s">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="53"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="53"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="39"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="53"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="39"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="52" t="s">
+      <c r="A104" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="53"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="39"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="54" t="s">
+      <c r="C106" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53" t="s">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D107" s="53"/>
-      <c r="E107" s="53"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="53"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="39"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="53" t="s">
+      <c r="A108" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="53" t="s">
+      <c r="B108" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="53"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="39"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="39"/>
+      <c r="B109" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="53"/>
-      <c r="K109" s="53"/>
-      <c r="L109" s="53"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="39"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
-      <c r="B110" s="54" t="s">
+      <c r="A110" s="39"/>
+      <c r="B110" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="53"/>
-      <c r="H110" s="53"/>
-      <c r="I110" s="53"/>
-      <c r="J110" s="53"/>
-      <c r="K110" s="53"/>
-      <c r="L110" s="53"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="39"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="39"/>
+      <c r="B111" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="53"/>
-      <c r="J111" s="53"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="53"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="39"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
-      <c r="B112" s="53" t="s">
+      <c r="A112" s="39"/>
+      <c r="B112" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="53"/>
-      <c r="L112" s="53"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="39"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="53"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="52" t="s">
+      <c r="A114" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B114" s="53"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="53"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="39"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
-      <c r="H115" s="53"/>
-      <c r="I115" s="53"/>
-      <c r="J115" s="53"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="53"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="39"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="53" t="s">
+      <c r="A116" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="53"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="39"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
-      <c r="B117" s="53" t="s">
+      <c r="A117" s="39"/>
+      <c r="B117" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="53" t="s">
+      <c r="C117" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="53"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="53" t="s">
+      <c r="A118" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="53" t="s">
+      <c r="B118" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C118" s="53"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="53"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="39"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
-      <c r="B119" s="54" t="s">
+      <c r="A119" s="39"/>
+      <c r="B119" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="53"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="54" t="s">
+      <c r="A120" s="39"/>
+      <c r="B120" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="53"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="39"/>
+      <c r="K120" s="39"/>
+      <c r="L120" s="39"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
-      <c r="B121" s="54" t="s">
+      <c r="A121" s="39"/>
+      <c r="B121" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="53"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
-      <c r="B122" s="53" t="s">
+      <c r="A122" s="39"/>
+      <c r="B122" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="53"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="39"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="53"/>
-      <c r="E123" s="53"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="53"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="14" width="8.85546875" style="4"/>
-    <col min="15" max="15" width="16.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -3890,68 +3641,129 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
+    <col min="2" max="14" width="8.85546875" style="4"/>
+    <col min="15" max="15" width="16.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -3966,271 +3778,79 @@
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="32"/>
+      <c r="C3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="43"/>
       <c r="E3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="32"/>
+      <c r="F3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="43"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="I3" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
       <c r="O3" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="32"/>
+      <c r="C4" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="43"/>
       <c r="E4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="32"/>
+      <c r="F4" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="43"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
+      <c r="I4" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="43"/>
+      <c r="M4" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="54"/>
+      <c r="O4" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+  <mergeCells count="17">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -4246,68 +3866,65 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="40"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4320,6 +3937,361 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>131</v>
@@ -4327,28 +4299,28 @@
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
       <c r="O3" s="19" t="s">
         <v>97</v>
       </c>
@@ -4360,28 +4332,28 @@
       <c r="B4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
       <c r="O4" s="19" t="s">
         <v>97</v>
       </c>
@@ -4393,34 +4365,445 @@
       <c r="B5" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="33" t="s">
+      <c r="J5" s="53"/>
+      <c r="K5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
       <c r="O5" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="19" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -4453,417 +4836,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
@@ -4878,72 +4850,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="40"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="40" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="30" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4952,8 +4924,8 @@
         <v>149</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -4973,28 +4945,28 @@
       <c r="B4" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
       <c r="O4" s="19" t="s">
         <v>97</v>
       </c>
@@ -5006,28 +4978,28 @@
       <c r="B5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="19" t="s">
         <v>97</v>
       </c>
@@ -5049,6 +5021,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M4:N4"/>
@@ -5065,13 +5044,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5081,10 +5053,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5093,200 +5065,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="40"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>155</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="32"/>
+      <c r="F4" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="43"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="19" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F15" s="4"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="17">
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5295,11 +5226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,197 +5238,364 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="51" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>3</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>44</v>
+      <c r="B62" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>3</v>
-      </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
       <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/RiskEval test/Test/New/20160709/RiskEval_Test_Script.xlsx
+++ b/RiskEval test/Test/New/20160709/RiskEval_Test_Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="4530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="4530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ภาพรวม" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="143">
   <si>
     <t>ทดสอบการลงทะเบียน (ส่วนราชการ รัฐวิสาหกิจ หน่วยงานอื่นของรัฐ จังหวัด และกลุ่มจังหวัด)</t>
   </si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>การทำแบบประเมิณจะต้องทำเรียงลำดับจากข้อแรกไปยังข้อสุดท้าย จะไม่สามารถทำข้ามข้อได้</t>
-  </si>
-  <si>
-    <t>ทดสอบการแสดงข้อมูลโครงการ</t>
   </si>
   <si>
     <t>ค้นหาโครงการที่ผ่านการพิจารณาจากรัฐสภา</t>
@@ -1025,19 +1022,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1062,21 +1051,29 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1396,64 +1393,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="18.125" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1463,9 +1460,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1474,52 +1468,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1534,35 +1528,35 @@
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="F3" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="39" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="39" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1591,11 +1585,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1603,6 +1592,11 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1618,58 +1612,58 @@
   <dimension ref="A1:P231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:N6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1684,396 +1678,396 @@
     </row>
     <row r="3" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="F3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="41"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="42"/>
       <c r="E5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="41"/>
+        <v>84</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="42"/>
       <c r="E6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="41"/>
+        <v>85</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="42"/>
       <c r="E7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="42"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="19"/>
       <c r="P7" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="41"/>
+        <v>86</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="42"/>
       <c r="E8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="42"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="19"/>
       <c r="P8" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="41"/>
+        <v>87</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="42"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="19"/>
       <c r="P9" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="41"/>
+      <c r="C10" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="42"/>
       <c r="E10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="42"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="19"/>
       <c r="P10" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="41"/>
+        <v>121</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="42"/>
       <c r="E11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="42"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="19"/>
       <c r="P11" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="41"/>
+      <c r="C12" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="42"/>
       <c r="E12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="42"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="19"/>
       <c r="P12" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="41"/>
+      <c r="C13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="42"/>
       <c r="E13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="42"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="19"/>
       <c r="P13" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="41"/>
+      <c r="C14" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="42"/>
       <c r="E14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="42"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="19"/>
       <c r="P14" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="41"/>
+      <c r="C15" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="42"/>
       <c r="E15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="42"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="19"/>
       <c r="P15" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,7 +2133,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
-      <c r="I41" s="56"/>
+      <c r="I41" s="41"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
@@ -2695,61 +2689,228 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.125" style="4" customWidth="1"/>
+    <col min="2" max="14" width="8.875" style="4"/>
+    <col min="15" max="15" width="16.875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="53"/>
+      <c r="O4" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:J4"/>
@@ -2774,64 +2935,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="14" width="8.85546875" style="4"/>
-    <col min="15" max="15" width="16.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="18" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2846,74 +3004,241 @@
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="41"/>
+      <c r="C4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="44" t="s">
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="42">
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -2926,6 +3251,233 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:J4"/>
@@ -2938,61 +3490,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -3005,225 +3557,114 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="41"/>
+        <v>95</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="40" t="s">
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="41"/>
+      <c r="C5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="42"/>
       <c r="E5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="16" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="19" t="s">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
@@ -3231,47 +3672,18 @@
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+  <mergeCells count="22">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -3291,63 +3703,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -3360,107 +3771,104 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="41"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="42"/>
       <c r="E5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3493,417 +3901,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
@@ -3914,86 +3911,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="25" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="45" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="49" t="s">
+      <c r="N2" s="47"/>
+      <c r="O2" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -4008,68 +4005,68 @@
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4089,6 +4086,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="M1:N1"/>
@@ -4102,16 +4109,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4121,59 +4118,59 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4188,68 +4185,68 @@
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="41"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4267,8 +4264,19 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -4278,14 +4286,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4295,60 +4295,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P72"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="16" max="16" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4363,114 +4366,89 @@
     </row>
     <row r="3" spans="1:16" s="16" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="N3" s="57"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="56"/>
       <c r="O3" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="16" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="23"/>
-      <c r="P4" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="P4" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="3"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="17">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -4483,16 +4461,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
